--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H2">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I2">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J2">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1955.417779124679</v>
+        <v>6544.519052356432</v>
       </c>
       <c r="R2">
-        <v>17598.76001212211</v>
+        <v>58900.67147120788</v>
       </c>
       <c r="S2">
-        <v>0.127811142217791</v>
+        <v>0.2271073759897179</v>
       </c>
       <c r="T2">
-        <v>0.127811142217791</v>
+        <v>0.227107375989718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H3">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I3">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J3">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>3221.382966967025</v>
+        <v>6345.836123298871</v>
       </c>
       <c r="R3">
-        <v>28992.44670270323</v>
+        <v>57112.52510968984</v>
       </c>
       <c r="S3">
-        <v>0.2105578873857319</v>
+        <v>0.2202126968985223</v>
       </c>
       <c r="T3">
-        <v>0.2105578873857319</v>
+        <v>0.2202126968985222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H4">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I4">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J4">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2851.166569658635</v>
+        <v>6462.131553432954</v>
       </c>
       <c r="R4">
-        <v>25660.49912692771</v>
+        <v>58159.18398089658</v>
       </c>
       <c r="S4">
-        <v>0.186359590166136</v>
+        <v>0.2242483716006743</v>
       </c>
       <c r="T4">
-        <v>0.186359590166136</v>
+        <v>0.2242483716006743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H5">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I5">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J5">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1292.379418863165</v>
+        <v>2578.20813628251</v>
       </c>
       <c r="R5">
-        <v>11631.41476976848</v>
+        <v>23203.87322654259</v>
       </c>
       <c r="S5">
-        <v>0.08447324733725561</v>
+        <v>0.0894687722508249</v>
       </c>
       <c r="T5">
-        <v>0.08447324733725561</v>
+        <v>0.08946877225082489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>29.37475</v>
       </c>
       <c r="I6">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J6">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>968.8450936063334</v>
+        <v>1646.061383486611</v>
       </c>
       <c r="R6">
-        <v>8719.605842457</v>
+        <v>14814.5524513795</v>
       </c>
       <c r="S6">
-        <v>0.06332621057652389</v>
+        <v>0.05712149029301797</v>
       </c>
       <c r="T6">
-        <v>0.06332621057652389</v>
+        <v>0.05712149029301797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>29.37475</v>
       </c>
       <c r="I7">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J7">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>1596.089140383139</v>
@@ -883,10 +883,10 @@
         <v>14364.80226344825</v>
       </c>
       <c r="S7">
-        <v>0.1043244969395229</v>
+        <v>0.05538735751522991</v>
       </c>
       <c r="T7">
-        <v>0.1043244969395229</v>
+        <v>0.0553873575152299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>29.37475</v>
       </c>
       <c r="I8">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J8">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>1412.659111294722</v>
+        <v>1625.339481789167</v>
       </c>
       <c r="R8">
-        <v>12713.9320016525</v>
+        <v>14628.0553361025</v>
       </c>
       <c r="S8">
-        <v>0.09233503781466629</v>
+        <v>0.05640240051997667</v>
       </c>
       <c r="T8">
-        <v>0.09233503781466629</v>
+        <v>0.05640240051997666</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>29.37475</v>
       </c>
       <c r="I9">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J9">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>640.3314281022224</v>
+        <v>648.4645881193612</v>
       </c>
       <c r="R9">
-        <v>5762.98285292</v>
+        <v>5836.18129307425</v>
       </c>
       <c r="S9">
-        <v>0.04185371131295011</v>
+        <v>0.02250296619994019</v>
       </c>
       <c r="T9">
-        <v>0.04185371131295011</v>
+        <v>0.02250296619994019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H10">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I10">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J10">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>280.2879022579014</v>
+        <v>301.6135742707907</v>
       </c>
       <c r="R10">
-        <v>2522.591120321112</v>
+        <v>2714.522168437116</v>
       </c>
       <c r="S10">
-        <v>0.01832033917245404</v>
+        <v>0.01046657009743985</v>
       </c>
       <c r="T10">
-        <v>0.01832033917245404</v>
+        <v>0.01046657009743985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H11">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I11">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J11">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>461.7502632019135</v>
+        <v>292.4569856964074</v>
       </c>
       <c r="R11">
-        <v>4155.752368817222</v>
+        <v>2632.112871267666</v>
       </c>
       <c r="S11">
-        <v>0.03018118643966735</v>
+        <v>0.01014881889410324</v>
       </c>
       <c r="T11">
-        <v>0.03018118643966735</v>
+        <v>0.01014881889410323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H12">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I12">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J12">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>408.6837633005489</v>
+        <v>297.81662787538</v>
       </c>
       <c r="R12">
-        <v>3678.15386970494</v>
+        <v>2680.34965087842</v>
       </c>
       <c r="S12">
-        <v>0.02671262333346003</v>
+        <v>0.01033480876773223</v>
       </c>
       <c r="T12">
-        <v>0.02671262333346003</v>
+        <v>0.01033480876773223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H13">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I13">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J13">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>185.2485540949689</v>
+        <v>118.8204304972127</v>
       </c>
       <c r="R13">
-        <v>1667.23698685472</v>
+        <v>1069.383874474914</v>
       </c>
       <c r="S13">
-        <v>0.012108322602892</v>
+        <v>0.004123297062520487</v>
       </c>
       <c r="T13">
-        <v>0.012108322602892</v>
+        <v>0.004123297062520486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H14">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>5.251894216471999</v>
+        <v>107.2790621663302</v>
       </c>
       <c r="R14">
-        <v>47.26704794824799</v>
+        <v>965.5115594969719</v>
       </c>
       <c r="S14">
-        <v>0.0003432773322306472</v>
+        <v>0.003722789423076182</v>
       </c>
       <c r="T14">
-        <v>0.0003432773322306472</v>
+        <v>0.003722789423076182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H15">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>8.652044976715333</v>
+        <v>104.0222119490358</v>
       </c>
       <c r="R15">
-        <v>77.86840479043799</v>
+        <v>936.199907541322</v>
       </c>
       <c r="S15">
-        <v>0.0005655199430009781</v>
+        <v>0.003609770467684042</v>
       </c>
       <c r="T15">
-        <v>0.0005655199430009781</v>
+        <v>0.003609770467684042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H16">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>7.657711501473332</v>
+        <v>105.9285498447933</v>
       </c>
       <c r="R16">
-        <v>68.91940351325999</v>
+        <v>953.3569486031399</v>
       </c>
       <c r="S16">
-        <v>0.000500527746155476</v>
+        <v>0.003675924052659759</v>
       </c>
       <c r="T16">
-        <v>0.000500527746155476</v>
+        <v>0.003675924052659759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H17">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>3.471094549653334</v>
+        <v>42.26250221250422</v>
       </c>
       <c r="R17">
-        <v>31.23985094688</v>
+        <v>380.362519912538</v>
       </c>
       <c r="S17">
-        <v>0.0002268796795617426</v>
+        <v>0.001466589966880082</v>
       </c>
       <c r="T17">
-        <v>0.0002268796795617426</v>
+        <v>0.001466589966880082</v>
       </c>
     </row>
   </sheetData>
